--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Type of TOP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>2020-01-02</t>
@@ -28,22 +31,451 @@
     <t>2020-01-11</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ТОП-1</t>
-  </si>
-  <si>
-    <t>ТОП-5</t>
-  </si>
-  <si>
-    <t>ТОП-10</t>
+    <t>винтовые компрессоры прямой привод</t>
+  </si>
+  <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
+    <t>купить поршневой компрессор</t>
+  </si>
+  <si>
+    <t>ресивер промышленный</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>вспомогательный компрессор электропоезда</t>
+  </si>
+  <si>
+    <t>генератор азота адсорбционного типа</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха для компрессора</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой fiac</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>купить винтовой безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор купить в рб</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>купить винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>магистральный фильтр для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>производство поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессоры</t>
+  </si>
+  <si>
+    <t>блочно модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>винтовые маслозаполненные компрессоры</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>купить компрессор в беларуси</t>
+  </si>
+  <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
+  </si>
+  <si>
+    <t>воздушный компрессор</t>
+  </si>
+  <si>
+    <t>ремеза медицинские компрессоры</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>воздушный ресивер цена</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
+  </si>
+  <si>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>фильтры для очистки сжатого воздуха</t>
+  </si>
+  <si>
+    <t>ремеза</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>ресивер воздушный</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
+  </si>
+  <si>
+    <t>осушитель сжатого воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор троллейбуса</t>
+  </si>
+  <si>
+    <t>система управления компрессором</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>купить рефрижераторные осушители</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор цена</t>
+  </si>
+  <si>
+    <t>осушители воздуха адсорбционные</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>медицинский компрессор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>фильтр воздушный сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>ресивер воздушный 500 литров</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>воздушные компрессоры</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
+    <t>стоимость винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
+  </si>
+  <si>
+    <t>производители поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>винтовой компрессор</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция цена</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>компрессор медицинского воздуха</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>доохладители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор медицинский</t>
+  </si>
+  <si>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
+  </si>
+  <si>
+    <t>винтовые компрессорные станции</t>
+  </si>
+  <si>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>фильтр сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель купить</t>
+  </si>
+  <si>
+    <t>адсорбционные осушители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>поршневой компрессор безмасляный</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>осушитель воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>винтовой компрессор ремеза</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>купить компрессор</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель цена</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>передвижная дизельная станция</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>компрессор медицинский купить</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>водомасляный сепаратор</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>спиральный безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>ресиверы воздухосборники</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель горячей регенерации</t>
   </si>
 </sst>
 </file>
@@ -401,13 +833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,56 +852,2988 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>49.664</v>
-      </c>
-      <c r="D2">
-        <v>48.322</v>
-      </c>
-      <c r="E2">
-        <v>48.322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>81.208</v>
-      </c>
-      <c r="D3">
-        <v>83.893</v>
-      </c>
-      <c r="E3">
-        <v>80.53700000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>88.59099999999999</v>
-      </c>
-      <c r="D4">
-        <v>89.262</v>
-      </c>
-      <c r="E4">
-        <v>88.59099999999999</v>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1900</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>43</v>
+      </c>
+      <c r="E22">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>110</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>1900</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
+      </c>
+      <c r="F41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>70</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>53</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="F59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>480</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>32</v>
+      </c>
+      <c r="E74">
+        <v>32</v>
+      </c>
+      <c r="F74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>70</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <v>50</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>70</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115">
+        <v>70</v>
+      </c>
+      <c r="D115">
+        <v>27</v>
+      </c>
+      <c r="E115">
+        <v>25</v>
+      </c>
+      <c r="F115">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>38</v>
+      </c>
+      <c r="E117">
+        <v>41</v>
+      </c>
+      <c r="F117">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>18</v>
+      </c>
+      <c r="F121">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125">
+        <v>30</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130">
+        <v>40</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135">
+        <v>1300</v>
+      </c>
+      <c r="D135">
+        <v>36</v>
+      </c>
+      <c r="E135">
+        <v>37</v>
+      </c>
+      <c r="F135">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137">
+        <v>20</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142">
+        <v>20</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147">
+        <v>70</v>
+      </c>
+      <c r="D147">
+        <v>27</v>
+      </c>
+      <c r="E147">
+        <v>26</v>
+      </c>
+      <c r="F147">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -31,451 +31,451 @@
     <t>2020-01-11</t>
   </si>
   <si>
+    <t>ресивер воздушный 500 литров</t>
+  </si>
+  <si>
+    <t>блочно модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>купить рефрижераторные осушители</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>фильтр воздушный сжатого воздуха</t>
+  </si>
+  <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>винтовые компрессорные станции</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>адсорбционные осушители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>доохладители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>поршневой компрессор безмасляный</t>
+  </si>
+  <si>
+    <t>купить компрессор в беларуси</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>ремеза медицинские компрессоры</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель купить</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>передвижная дизельная станция</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>винтовой компрессор ремеза</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
+  </si>
+  <si>
+    <t>осушитель воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>фильтр сжатого воздуха</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>компрессор поршневой fiac</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>водомасляный сепаратор</t>
+  </si>
+  <si>
+    <t>ресивер промышленный</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель горячей регенерации</t>
+  </si>
+  <si>
     <t>винтовые компрессоры прямой привод</t>
   </si>
   <si>
-    <t>компрессор тандем</t>
+    <t>компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>ресиверы воздухосборники</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель цена</t>
+  </si>
+  <si>
+    <t>медицинский компрессор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>генератор азота адсорбционного типа</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>компрессоры</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>купить винтовой компрессор</t>
+  </si>
+  <si>
+    <t>производство поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха для компрессора</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция цена</t>
+  </si>
+  <si>
+    <t>вспомогательный компрессор электропоезда</t>
+  </si>
+  <si>
+    <t>компрессор медицинского воздуха</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>воздушный компрессор</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>винтовые маслозаполненные компрессоры</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>магистральный фильтр для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>ремеза</t>
+  </si>
+  <si>
+    <t>компрессор троллейбуса</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>фильтры для очистки сжатого воздуха</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>купить компрессор</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>спиральный безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>воздушный ресивер цена</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>компрессор медицинский купить</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
   </si>
   <si>
     <t>купить поршневой компрессор</t>
   </si>
   <si>
-    <t>ресивер промышленный</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
-    <t>компрессоры ремеза</t>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>осушители воздуха адсорбционные</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>воздушные компрессоры</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>система управления компрессором</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>осушитель сжатого воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>купить винтовой безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
   </si>
   <si>
     <t>безмасляный компрессор</t>
   </si>
   <si>
-    <t>вспомогательный компрессор электропоезда</t>
-  </si>
-  <si>
-    <t>генератор азота адсорбционного типа</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>компрессор</t>
+    <t>ресивер воздушный</t>
   </si>
   <si>
     <t>компрессор воздушный медицинский безмасляный</t>
   </si>
   <si>
-    <t>рефрижераторный осушитель воздуха для компрессора</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой fiac</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>купить винтовой безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
+    <t>циклонный сепаратор цена</t>
+  </si>
+  <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>производители поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
   </si>
   <si>
     <t>компрессор купить в рб</t>
   </si>
   <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>купить винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессоры</t>
-  </si>
-  <si>
-    <t>блочно модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>винтовые маслозаполненные компрессоры</t>
-  </si>
-  <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>купить компрессор в беларуси</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
-    <t>воздушный компрессор</t>
-  </si>
-  <si>
-    <t>ремеза медицинские компрессоры</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>воздушный ресивер цена</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>фильтры для очистки сжатого воздуха</t>
-  </si>
-  <si>
-    <t>ремеза</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
-  </si>
-  <si>
-    <t>ресивер воздушный</t>
-  </si>
-  <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>осушитель сжатого воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор троллейбуса</t>
-  </si>
-  <si>
-    <t>система управления компрессором</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>купить рефрижераторные осушители</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор цена</t>
-  </si>
-  <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>медицинский компрессор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>фильтр воздушный сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>ресивер воздушный 500 литров</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>воздушные компрессоры</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
-  </si>
-  <si>
     <t>стоимость винтовых компрессоров</t>
   </si>
   <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>производители поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
     <t>винтовой компрессор</t>
   </si>
   <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>компрессор медицинского воздуха</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>доохладители сжатого воздуха</t>
-  </si>
-  <si>
     <t>компрессор медицинский</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
-    <t>винтовые компрессорные станции</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель купить</t>
-  </si>
-  <si>
-    <t>адсорбционные осушители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
-    <t>поршневой компрессор безмасляный</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>осушитель воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>купить компрессор</t>
-  </si>
-  <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель цена</t>
-  </si>
-  <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>передвижная дизельная станция</t>
-  </si>
-  <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>компрессор медицинский купить</t>
-  </si>
-  <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>водомасляный сепаратор</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>спиральный безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>ресиверы воздухосборники</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель горячей регенерации</t>
   </si>
 </sst>
 </file>
@@ -867,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -884,16 +884,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,16 +904,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -927,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1024,13 +1024,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1104,16 +1104,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1900</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1124,7 +1124,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1204,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1224,16 +1224,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1287,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1324,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1387,13 +1387,13 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1407,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1447,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,16 +1464,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1484,7 +1484,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1504,16 +1504,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1524,7 +1524,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1547,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,16 +1564,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>1900</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1584,16 +1584,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1607,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,16 +1624,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1644,16 +1644,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1664,16 +1664,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1684,7 +1684,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1707,13 +1707,13 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1724,16 +1724,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,7 +1744,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1767,13 +1767,13 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,16 +1784,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>1900</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1807,13 +1807,13 @@
         <v>10</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1824,16 +1824,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1844,7 +1844,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1867,13 +1867,13 @@
         <v>10</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1887,13 +1887,13 @@
         <v>10</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1904,16 +1904,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1927,13 +1927,13 @@
         <v>10</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1944,16 +1944,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1964,16 +1964,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D57">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1987,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,16 +2004,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2027,13 +2027,13 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,16 +2064,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2087,13 +2087,13 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,16 +2124,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2167,13 +2167,13 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2184,7 +2184,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2204,16 +2204,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2224,16 +2224,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>40</v>
+        <v>1900</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2284,7 +2284,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2304,16 +2304,16 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2407,13 +2407,13 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,16 +2424,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2464,10 +2464,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2484,16 +2484,16 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2507,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2527,13 +2527,13 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2544,16 +2544,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2564,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2604,16 +2604,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2624,7 +2624,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2647,13 +2647,13 @@
         <v>10</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2664,16 +2664,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2684,7 +2684,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2704,16 +2704,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2747,13 +2747,13 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2764,16 +2764,16 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2784,16 +2784,16 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2807,13 +2807,13 @@
         <v>10</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2824,16 +2824,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2844,16 +2844,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2884,7 +2884,7 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2904,16 +2904,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2924,16 +2924,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2947,13 +2947,13 @@
         <v>10</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2964,16 +2964,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3007,13 +3007,13 @@
         <v>10</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3044,16 +3044,16 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3064,7 +3064,7 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3084,7 +3084,7 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -3107,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3124,16 +3124,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3147,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3164,16 +3164,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3187,13 +3187,13 @@
         <v>10</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3207,13 +3207,13 @@
         <v>10</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3247,13 +3247,13 @@
         <v>10</v>
       </c>
       <c r="D121">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3267,13 +3267,13 @@
         <v>10</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3287,13 +3287,13 @@
         <v>10</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3304,16 +3304,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3324,16 +3324,16 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3344,16 +3344,16 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3367,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -3384,16 +3384,16 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3424,7 +3424,7 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3444,7 +3444,7 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -3504,16 +3504,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3524,16 +3524,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F135">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3544,16 +3544,16 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F136">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3564,16 +3564,16 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3584,7 +3584,7 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -3607,13 +3607,13 @@
         <v>10</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3644,16 +3644,16 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3664,7 +3664,7 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3687,13 +3687,13 @@
         <v>10</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3707,13 +3707,13 @@
         <v>10</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3747,13 +3747,13 @@
         <v>10</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3764,16 +3764,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E147">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F147">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3787,13 +3787,13 @@
         <v>10</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3804,16 +3804,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3827,13 +3827,13 @@
         <v>10</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -31,451 +31,451 @@
     <t>2020-01-11</t>
   </si>
   <si>
+    <t>рефрижераторный осушитель цена</t>
+  </si>
+  <si>
+    <t>компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>передвижная дизельная станция</t>
+  </si>
+  <si>
+    <t>ресиверы воздухосборники</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>винтовой компрессор ремеза</t>
+  </si>
+  <si>
+    <t>генератор азота адсорбционного типа</t>
+  </si>
+  <si>
+    <t>купить поршневой компрессор</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>купить винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой fiac</t>
+  </si>
+  <si>
+    <t>вспомогательный компрессор электропоезда</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха для компрессора</t>
+  </si>
+  <si>
+    <t>компрессоры</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>компрессор купить в рб</t>
+  </si>
+  <si>
+    <t>компрессор медицинский купить</t>
+  </si>
+  <si>
+    <t>ресивер промышленный</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>спиральный безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры прямой привод</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>производство поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>магистральный фильтр для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>воздушный компрессор</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>купить компрессор в беларуси</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>купить винтовой безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>ремеза</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
+  </si>
+  <si>
+    <t>воздушный ресивер цена</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>винтовые маслозаполненные компрессоры</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>блочно модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>компрессор троллейбуса</t>
+  </si>
+  <si>
+    <t>ресивер воздушный</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>фильтры для очистки сжатого воздуха</t>
+  </si>
+  <si>
+    <t>осушитель сжатого воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>воздушные компрессоры</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор цена</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>ремеза медицинские компрессоры</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>винтовой компрессор</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>фильтр воздушный сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>осушители воздуха адсорбционные</t>
+  </si>
+  <si>
     <t>ресивер воздушный 500 литров</t>
   </si>
   <si>
-    <t>блочно модульная компрессорная станция</t>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
   </si>
   <si>
     <t>купить рефрижераторные осушители</t>
   </si>
   <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>фильтр воздушный сжатого воздуха</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
+  </si>
+  <si>
+    <t>система управления компрессором</t>
+  </si>
+  <si>
+    <t>доохладители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>компрессор медицинский</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
+  </si>
+  <si>
+    <t>медицинский компрессор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>производители поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель купить</t>
+  </si>
+  <si>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>стоимость винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
+    <t>поршневой компрессор безмасляный</t>
+  </si>
+  <si>
+    <t>фильтр сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>адсорбционные осушители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>осушитель воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция цена</t>
+  </si>
+  <si>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>купить компрессор</t>
+  </si>
+  <si>
+    <t>компрессор медицинского воздуха</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
+  </si>
+  <si>
+    <t>водомасляный сепаратор</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
   </si>
   <si>
     <t>винтовые компрессорные станции</t>
   </si>
   <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
-  </si>
-  <si>
-    <t>адсорбционные осушители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>доохладители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>поршневой компрессор безмасляный</t>
-  </si>
-  <si>
-    <t>купить компрессор в беларуси</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>ремеза медицинские компрессоры</t>
-  </si>
-  <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель купить</t>
-  </si>
-  <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>передвижная дизельная станция</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>осушитель воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
-  </si>
-  <si>
-    <t>компрессор поршневой fiac</t>
-  </si>
-  <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>компрессор тандем</t>
-  </si>
-  <si>
-    <t>компрессор</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
-    <t>водомасляный сепаратор</t>
-  </si>
-  <si>
-    <t>ресивер промышленный</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
-  </si>
-  <si>
     <t>адсорбционный осушитель горячей регенерации</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры прямой привод</t>
-  </si>
-  <si>
-    <t>компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>ресиверы воздухосборники</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель цена</t>
-  </si>
-  <si>
-    <t>медицинский компрессор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>генератор азота адсорбционного типа</t>
-  </si>
-  <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
-    <t>компрессоры</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>купить винтовой компрессор</t>
-  </si>
-  <si>
-    <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха для компрессора</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>вспомогательный компрессор электропоезда</t>
-  </si>
-  <si>
-    <t>компрессор медицинского воздуха</t>
-  </si>
-  <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>воздушный компрессор</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный</t>
-  </si>
-  <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>винтовые маслозаполненные компрессоры</t>
-  </si>
-  <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
-  </si>
-  <si>
-    <t>ремеза</t>
-  </si>
-  <si>
-    <t>компрессор троллейбуса</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
-  </si>
-  <si>
-    <t>фильтры для очистки сжатого воздуха</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>купить компрессор</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>спиральный безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>воздушный ресивер цена</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>компрессор медицинский купить</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>купить поршневой компрессор</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>воздушные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>система управления компрессором</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>осушитель сжатого воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>купить винтовой безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>ресивер воздушный</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор цена</t>
-  </si>
-  <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>производители поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
-    <t>компрессор купить в рб</t>
-  </si>
-  <si>
-    <t>стоимость винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессор медицинский</t>
   </si>
 </sst>
 </file>
@@ -864,13 +864,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -884,16 +884,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,16 +904,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -924,16 +924,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>292</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -964,16 +964,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -984,16 +984,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1004,16 +1004,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1024,16 +1024,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1044,16 +1044,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,13 +1084,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1104,16 +1104,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1124,16 +1124,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1164,16 +1164,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1187,13 +1187,13 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1204,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1224,16 +1224,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1244,16 +1244,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1344,16 +1344,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1364,16 +1364,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1384,16 +1384,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1404,16 +1404,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1444,16 +1444,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,16 +1464,16 @@
         <v>35</v>
       </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="D32">
-        <v>19</v>
-      </c>
       <c r="E32">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1524,16 +1524,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1544,16 +1544,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,16 +1564,16 @@
         <v>40</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
         <v>10</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
       <c r="F37">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1584,16 +1584,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1604,16 +1604,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1644,16 +1644,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1664,16 +1664,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1684,16 +1684,16 @@
         <v>46</v>
       </c>
       <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
         <v>10</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1704,16 +1704,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1724,16 +1724,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,16 +1744,16 @@
         <v>49</v>
       </c>
       <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>10</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="E46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,16 +1764,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,16 +1784,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1804,16 +1804,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1824,16 +1824,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1844,16 +1844,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,16 +1864,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1884,13 +1884,13 @@
         <v>56</v>
       </c>
       <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53">
         <v>10</v>
-      </c>
-      <c r="D53">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -1904,16 +1904,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1924,16 +1924,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1944,16 +1944,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1964,16 +1964,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1984,16 +1984,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,16 +2004,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2024,16 +2024,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,16 +2044,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,7 +2064,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,16 +2124,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2164,16 +2164,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2187,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2224,16 +2224,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E70">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F70">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2304,16 +2304,16 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2324,16 +2324,16 @@
         <v>78</v>
       </c>
       <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75">
         <v>10</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
       <c r="F75">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2344,16 +2344,16 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,16 +2404,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,16 +2424,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2444,16 +2444,16 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2464,16 +2464,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2484,16 +2484,16 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F83">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2504,16 +2504,16 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2524,16 +2524,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2544,16 +2544,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2564,16 +2564,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2584,16 +2584,16 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2604,16 +2604,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2627,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2644,16 +2644,16 @@
         <v>94</v>
       </c>
       <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
         <v>10</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2664,16 +2664,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2704,16 +2704,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2724,16 +2724,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2744,16 +2744,16 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2784,16 +2784,16 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E98">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F98">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2804,16 +2804,16 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2824,16 +2824,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2844,16 +2844,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2864,7 +2864,7 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2884,16 +2884,16 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2907,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2924,16 +2924,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2944,16 +2944,16 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2964,16 +2964,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2984,16 +2984,16 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3004,16 +3004,16 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3024,16 +3024,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3044,16 +3044,16 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E111">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F111">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3067,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3084,16 +3084,16 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3104,16 +3104,16 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3124,16 +3124,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3144,16 +3144,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3164,16 +3164,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3184,16 +3184,16 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3204,16 +3204,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3224,16 +3224,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3244,16 +3244,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E121">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3264,16 +3264,16 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3284,16 +3284,16 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>486</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3304,16 +3304,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3324,16 +3324,16 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3364,16 +3364,16 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3384,16 +3384,16 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3404,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3444,16 +3444,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3464,16 +3464,16 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3484,16 +3484,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3504,16 +3504,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3527,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3544,16 +3544,16 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F136">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3564,16 +3564,16 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3604,16 +3604,16 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F139">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3624,16 +3624,16 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D140">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E140">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3644,16 +3644,16 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3664,16 +3664,16 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3684,16 +3684,16 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3704,16 +3704,16 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3724,16 +3724,16 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3744,16 +3744,16 @@
         <v>149</v>
       </c>
       <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
         <v>10</v>
       </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
       <c r="E146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3764,16 +3764,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3784,16 +3784,16 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3804,16 +3804,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3824,16 +3824,16 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -22,460 +22,460 @@
     <t>volume</t>
   </si>
   <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
+    <t>2019-10-22</t>
+  </si>
+  <si>
+    <t>2019-11-15</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+  </si>
+  <si>
+    <t>компрессор медицинский</t>
+  </si>
+  <si>
+    <t>винтовые маслозаполненные компрессоры</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
+  </si>
+  <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
+  </si>
+  <si>
+    <t>спиральный безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>генератор азота адсорбционного типа</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>осушители воздуха адсорбционные</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
+  </si>
+  <si>
+    <t>водомасляный сепаратор</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>воздушные компрессоры</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция цена</t>
+  </si>
+  <si>
+    <t>купить рефрижераторные осушители</t>
+  </si>
+  <si>
+    <t>винтовой компрессор ремеза</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>ремеза</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>воздушный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный</t>
+  </si>
+  <si>
+    <t>компрессор медицинского воздуха</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>винтовые компрессорные станции</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
+  </si>
+  <si>
+    <t>купить компрессор в беларуси</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>компрессоры</t>
+  </si>
+  <si>
+    <t>купить винтовой компрессор</t>
+  </si>
+  <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>фильтры для очистки сжатого воздуха</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>ремеза медицинские компрессоры</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>фильтр воздушный сжатого воздуха</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>ресивер воздушный</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>осушитель сжатого воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>осушитель воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель горячей регенерации</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>купить винтовой безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>воздушный ресивер цена</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>компрессор медицинский купить</t>
+  </si>
+  <si>
+    <t>компрессор троллейбуса</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры прямой привод</t>
+  </si>
+  <si>
+    <t>магистральный фильтр для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>ресивер промышленный</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель купить</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>вспомогательный компрессор электропоезда</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха для компрессора</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>доохладители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор цена</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
+  </si>
+  <si>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>ресиверы воздухосборники</t>
+  </si>
+  <si>
+    <t>производство поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>медицинский компрессор сжатого воздуха</t>
   </si>
   <si>
     <t>компрессор поршневой fiac</t>
   </si>
   <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
+    <t>стоимость винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>фильтр сжатого воздуха</t>
   </si>
   <si>
     <t>производители поршневых компрессоров</t>
   </si>
   <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>компрессор медицинского воздуха</t>
-  </si>
-  <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>воздушный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>купить винтовой компрессор</t>
-  </si>
-  <si>
-    <t>купить компрессор в беларуси</t>
-  </si>
-  <si>
-    <t>осушитель воздуха рефрижераторного типа</t>
+    <t>компрессор купить в рб</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
   </si>
   <si>
     <t>передвижная дизельная станция</t>
   </si>
   <si>
-    <t>циклонный сепаратор</t>
+    <t>блочно модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
   </si>
   <si>
     <t>система управления компрессором</t>
   </si>
   <si>
-    <t>винтовые компрессорные станции</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>компрессоры</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>фильтры для очистки сжатого воздуха</t>
+    <t>купить поршневой компрессор</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
   </si>
   <si>
     <t>адсорбционные осушители сжатого воздуха</t>
   </si>
   <si>
-    <t>адсорбционный осушитель горячей регенерации</t>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>ресивер воздушный 500 литров</t>
   </si>
   <si>
     <t>поршневой компрессор безмасляный</t>
   </si>
   <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>компрессор медицинский</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель купить</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
-  </si>
-  <si>
-    <t>ремеза медицинские компрессоры</t>
-  </si>
-  <si>
-    <t>фильтр воздушный сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>купить компрессор</t>
-  </si>
-  <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>доохладители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>ресивер воздушный</t>
-  </si>
-  <si>
-    <t>осушитель сжатого воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>воздушный ресивер цена</t>
-  </si>
-  <si>
-    <t>винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор цена</t>
-  </si>
-  <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>купить винтовой безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор медицинский купить</t>
-  </si>
-  <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры прямой привод</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>вспомогательный компрессор электропоезда</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха для компрессора</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
-  </si>
-  <si>
-    <t>ресиверы воздухосборники</t>
-  </si>
-  <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
+    <t>безмасляный компрессор</t>
   </si>
   <si>
     <t>рефрижераторный осушитель цена</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>генератор азота адсорбционного типа</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
-  </si>
-  <si>
-    <t>медицинский компрессор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>водомасляный сепаратор</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>стоимость винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>компрессор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>компрессор купить в рб</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>купить поршневой компрессор</t>
-  </si>
-  <si>
-    <t>купить рефрижераторные осушители</t>
-  </si>
-  <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>блочно модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>ресивер воздушный 500 литров</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>компрессор троллейбуса</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>ресивер промышленный</t>
-  </si>
-  <si>
-    <t>винтовые маслозаполненные компрессоры</t>
-  </si>
-  <si>
-    <t>спиральный безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
-    <t>воздушные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>ремеза</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>компрессор тандем</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -887,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,16 +904,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -944,16 +944,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -967,13 +967,13 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1004,16 +1004,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1024,16 +1024,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1064,16 +1064,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1104,16 +1104,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1127,13 +1127,13 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1147,13 +1147,13 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1184,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1204,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1244,16 +1244,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>1900</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,7 +1284,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1304,16 +1304,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1324,16 +1324,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1367,13 +1367,13 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1384,16 +1384,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1447,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1467,13 +1467,13 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1487,13 +1487,13 @@
         <v>10</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1507,13 +1507,13 @@
         <v>10</v>
       </c>
       <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
       <c r="F34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1544,16 +1544,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1567,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1604,16 +1604,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,7 +1624,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1644,16 +1644,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1664,16 +1664,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>1300</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1687,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1707,13 +1707,13 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1744,16 +1744,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,16 +1764,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,16 +1784,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>1900</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1804,16 +1804,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1827,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1847,13 +1847,13 @@
         <v>10</v>
       </c>
       <c r="D51">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,16 +1864,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1884,7 +1884,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1904,16 +1904,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1924,7 +1924,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1947,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1964,7 +1964,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2004,7 +2004,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2027,13 +2027,13 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,16 +2044,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,16 +2064,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F62">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2084,16 +2084,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2127,13 +2127,13 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2164,7 +2164,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2184,16 +2184,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2224,16 +2224,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2307,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2324,7 +2324,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2344,10 +2344,10 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2367,13 +2367,13 @@
         <v>10</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2387,13 +2387,13 @@
         <v>10</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,13 +2404,13 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79">
         <v>3</v>
@@ -2424,16 +2424,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2464,16 +2464,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2487,13 +2487,13 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2507,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2527,13 +2527,13 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2547,13 +2547,13 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2564,7 +2564,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2604,16 +2604,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2624,7 +2624,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2647,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2667,13 +2667,13 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2684,7 +2684,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -2707,13 +2707,13 @@
         <v>10</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2724,7 +2724,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2747,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2767,13 +2767,13 @@
         <v>10</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2807,13 +2807,13 @@
         <v>10</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2827,13 +2827,13 @@
         <v>10</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2844,16 +2844,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2867,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2887,13 +2887,13 @@
         <v>10</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2904,16 +2904,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2924,16 +2924,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2947,13 +2947,13 @@
         <v>10</v>
       </c>
       <c r="D106">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E106">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2964,16 +2964,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2984,16 +2984,16 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3007,13 +3007,13 @@
         <v>10</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3027,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3064,16 +3064,16 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3084,16 +3084,16 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3107,13 +3107,13 @@
         <v>10</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3124,7 +3124,7 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -3144,16 +3144,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3164,16 +3164,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3187,13 +3187,13 @@
         <v>10</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E119">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3224,16 +3224,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3270,10 +3270,10 @@
         <v>4</v>
       </c>
       <c r="E122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3284,7 +3284,7 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3327,13 +3327,13 @@
         <v>10</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3387,13 +3387,13 @@
         <v>10</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3410,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3430,10 +3430,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3444,16 +3444,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3464,7 +3464,7 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3484,16 +3484,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>70</v>
+        <v>1900</v>
       </c>
       <c r="D133">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F133">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3504,16 +3504,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3524,16 +3524,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3544,7 +3544,7 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -3553,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3567,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>4</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3587,13 +3587,13 @@
         <v>10</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3644,16 +3644,16 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3684,16 +3684,16 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D143">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3704,16 +3704,16 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D144">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3724,7 +3724,7 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3744,16 +3744,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3764,16 +3764,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3804,16 +3804,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3827,13 +3827,13 @@
         <v>10</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F150">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -22,460 +22,460 @@
     <t>volume</t>
   </si>
   <si>
-    <t>2019-10-22</t>
-  </si>
-  <si>
-    <t>2019-11-15</t>
-  </si>
-  <si>
-    <t>2020-01-17</t>
+    <t>2019-10-19</t>
+  </si>
+  <si>
+    <t>2019-12-12</t>
+  </si>
+  <si>
+    <t>2020-01-11</t>
+  </si>
+  <si>
+    <t>водомасляный сепаратор</t>
+  </si>
+  <si>
+    <t>компрессор медицинский купить</t>
+  </si>
+  <si>
+    <t>магистральный фильтр для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор купить в рб</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>воздушные компрессоры</t>
+  </si>
+  <si>
+    <t>адсорбционные осушители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>поршневой компрессор безмасляный</t>
+  </si>
+  <si>
+    <t>ремеза</t>
   </si>
   <si>
     <t>компрессор медицинский</t>
   </si>
   <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>купить рефрижераторные осушители</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>вспомогательный компрессор электропоезда</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха для компрессора</t>
+  </si>
+  <si>
+    <t>купить поршневой компрессор</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры прямой привод</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
+    <t>воздушный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный</t>
+  </si>
+  <si>
+    <t>осушители воздуха адсорбционные</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>ресиверы воздухосборники</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>фильтр сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
+  </si>
+  <si>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>компрессоры</t>
+  </si>
+  <si>
+    <t>купить винтовой компрессор</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>медицинский компрессор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>фильтры для очистки сжатого воздуха</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
+  </si>
+  <si>
+    <t>стоимость винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>блочно модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>ресивер воздушный 500 литров</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>осушитель воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>купить компрессор в беларуси</t>
+  </si>
+  <si>
     <t>винтовые маслозаполненные компрессоры</t>
   </si>
   <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
     <t>спиральный безмасляный компрессор</t>
   </si>
   <si>
+    <t>винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель горячей регенерации</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция цена</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель купить</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>доохладители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор медицинского воздуха</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор</t>
+  </si>
+  <si>
+    <t>винтовой компрессор ремеза</t>
+  </si>
+  <si>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>компрессор троллейбуса</t>
+  </si>
+  <si>
+    <t>ресивер промышленный</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор цена</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>винтовые компрессорные станции</t>
+  </si>
+  <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
+  </si>
+  <si>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>ремеза медицинские компрессоры</t>
+  </si>
+  <si>
+    <t>фильтр воздушный сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
+  </si>
+  <si>
+    <t>производство поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>компрессор поршневой fiac</t>
+  </si>
+  <si>
+    <t>производители поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель цена</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>ресивер воздушный</t>
+  </si>
+  <si>
+    <t>осушитель сжатого воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>передвижная дизельная станция</t>
+  </si>
+  <si>
+    <t>система управления компрессором</t>
+  </si>
+  <si>
     <t>адсорбционный осушитель сжатого воздуха</t>
   </si>
   <si>
+    <t>купить винтовой безмасляный компрессор</t>
+  </si>
+  <si>
     <t>генератор азота адсорбционного типа</t>
   </si>
   <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>водомасляный сепаратор</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>воздушные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>компрессор тандем</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>купить рефрижераторные осушители</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>ремеза</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский</t>
-  </si>
-  <si>
-    <t>воздушный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный</t>
-  </si>
-  <si>
-    <t>компрессор медицинского воздуха</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>винтовые компрессорные станции</t>
-  </si>
-  <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
-  </si>
-  <si>
-    <t>купить компрессор в беларуси</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>компрессоры</t>
-  </si>
-  <si>
-    <t>купить винтовой компрессор</t>
-  </si>
-  <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>фильтры для очистки сжатого воздуха</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>ремеза медицинские компрессоры</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>фильтр воздушный сжатого воздуха</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>ресивер воздушный</t>
-  </si>
-  <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>осушитель сжатого воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>осушитель воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель горячей регенерации</t>
-  </si>
-  <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
-    <t>купить винтовой безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
     <t>воздушный ресивер цена</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>компрессор медицинский купить</t>
-  </si>
-  <si>
-    <t>компрессор троллейбуса</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры прямой привод</t>
-  </si>
-  <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>ресивер промышленный</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель купить</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>вспомогательный компрессор электропоезда</t>
-  </si>
-  <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха для компрессора</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
-  </si>
-  <si>
-    <t>доохладители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор цена</t>
-  </si>
-  <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>ресиверы воздухосборники</t>
-  </si>
-  <si>
-    <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
-  </si>
-  <si>
-    <t>медицинский компрессор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор поршневой fiac</t>
-  </si>
-  <si>
-    <t>стоимость винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>производители поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор купить в рб</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>компрессор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>передвижная дизельная станция</t>
-  </si>
-  <si>
-    <t>блочно модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>система управления компрессором</t>
-  </si>
-  <si>
-    <t>купить поршневой компрессор</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>адсорбционные осушители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>ресивер воздушный 500 литров</t>
-  </si>
-  <si>
-    <t>поршневой компрессор безмасляный</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель цена</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -887,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,16 +904,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -927,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -944,16 +944,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -967,10 +967,10 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -984,16 +984,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1024,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1064,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1104,16 +1104,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1124,16 +1124,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1164,16 +1164,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1204,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1307,13 +1307,13 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1324,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1347,13 +1347,13 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1367,13 +1367,13 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1407,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1447,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,16 +1464,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1484,16 +1484,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -1524,16 +1524,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1544,16 +1544,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1567,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1584,16 +1584,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1604,16 +1604,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,7 +1624,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1670,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1687,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1704,16 +1704,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1724,7 +1724,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1744,16 +1744,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E46">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1767,13 +1767,13 @@
         <v>10</v>
       </c>
       <c r="D47">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,16 +1784,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>1900</v>
+        <v>50</v>
       </c>
       <c r="D48">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1804,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -1824,16 +1824,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1844,16 +1844,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,16 +1864,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1884,16 +1884,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1904,16 +1904,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1924,7 +1924,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1964,13 +1964,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1987,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,7 +2004,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2024,16 +2024,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,16 +2044,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,7 +2064,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -2073,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2084,16 +2084,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2127,13 +2127,13 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F66">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2164,16 +2164,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2187,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2224,16 +2224,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>1300</v>
+        <v>10</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2304,7 +2304,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2324,16 +2324,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2344,10 +2344,10 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2367,13 +2367,13 @@
         <v>10</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2384,7 +2384,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,16 +2404,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,7 +2424,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2447,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2487,13 +2487,13 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2524,7 +2524,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2564,16 +2564,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2604,7 +2604,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2627,13 +2627,13 @@
         <v>10</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2644,16 +2644,16 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2667,13 +2667,13 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2687,13 +2687,13 @@
         <v>10</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2704,16 +2704,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2724,16 +2724,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2747,13 +2747,13 @@
         <v>10</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2787,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2804,16 +2804,16 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F99">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2847,13 +2847,13 @@
         <v>10</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2864,16 +2864,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2887,13 +2887,13 @@
         <v>10</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2904,7 +2904,7 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2944,16 +2944,16 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2970,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2984,16 +2984,16 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3013,7 +3013,7 @@
         <v>2</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3024,16 +3024,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3047,13 +3047,13 @@
         <v>10</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3064,16 +3064,16 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3087,13 +3087,13 @@
         <v>10</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3104,16 +3104,16 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3124,16 +3124,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>1900</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3144,16 +3144,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3167,13 +3167,13 @@
         <v>10</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3187,13 +3187,13 @@
         <v>10</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F119">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3224,16 +3224,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3244,16 +3244,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3267,13 +3267,13 @@
         <v>10</v>
       </c>
       <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
         <v>4</v>
-      </c>
-      <c r="E122">
-        <v>5</v>
-      </c>
-      <c r="F122">
-        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3304,7 +3304,7 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -3327,13 +3327,13 @@
         <v>10</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3347,13 +3347,13 @@
         <v>10</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3384,16 +3384,16 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D128">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3404,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3427,13 +3427,13 @@
         <v>10</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3444,16 +3444,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3464,7 +3464,7 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3484,16 +3484,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>1900</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3507,13 +3507,13 @@
         <v>10</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3524,16 +3524,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3547,10 +3547,10 @@
         <v>10</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -3564,16 +3564,16 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3604,16 +3604,16 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3627,13 +3627,13 @@
         <v>10</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3647,13 +3647,13 @@
         <v>10</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3727,10 +3727,10 @@
         <v>10</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F145">
         <v>6</v>
@@ -3747,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3767,13 +3767,13 @@
         <v>10</v>
       </c>
       <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
         <v>4</v>
-      </c>
-      <c r="E147">
-        <v>5</v>
-      </c>
-      <c r="F147">
-        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3784,7 +3784,7 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3804,16 +3804,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3827,13 +3827,13 @@
         <v>10</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -31,451 +31,451 @@
     <t>2020-01-11</t>
   </si>
   <si>
+    <t>ресивер воздушный</t>
+  </si>
+  <si>
+    <t>осушитель сжатого воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>осушитель воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
+  </si>
+  <si>
+    <t>купить компрессор в беларуси</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>купить винтовой безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>воздушный ресивер цена</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель горячей регенерации</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель купить</t>
+  </si>
+  <si>
+    <t>компрессор троллейбуса</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>ресивер промышленный</t>
+  </si>
+  <si>
+    <t>винтовой компрессор</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>компрессор медицинский купить</t>
+  </si>
+  <si>
+    <t>магистральный фильтр для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>вспомогательный компрессор электропоезда</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха для компрессора</t>
+  </si>
+  <si>
+    <t>доохладители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
+  </si>
+  <si>
+    <t>купить компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>ресиверы воздухосборники</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор цена</t>
+  </si>
+  <si>
+    <t>производство поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>компрессор поршневой fiac</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>производители поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры прямой привод</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>медицинский компрессор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>фильтр сжатого воздуха</t>
+  </si>
+  <si>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>передвижная дизельная станция</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>система управления компрессором</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>ресивер воздушный 500 литров</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель цена</t>
+  </si>
+  <si>
+    <t>адсорбционные осушители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>поршневой компрессор безмасляный</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>стоимость винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор медицинский</t>
+  </si>
+  <si>
+    <t>генератор азота адсорбционного типа</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
     <t>водомасляный сепаратор</t>
   </si>
   <si>
-    <t>компрессор медицинский купить</t>
-  </si>
-  <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
+    <t>осушители воздуха адсорбционные</t>
   </si>
   <si>
     <t>компрессор купить в рб</t>
   </si>
   <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>блочно модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>купить рефрижераторные осушители</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>купить поршневой компрессор</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
   </si>
   <si>
     <t>воздушные компрессоры</t>
   </si>
   <si>
-    <t>адсорбционные осушители сжатого воздуха</t>
+    <t>винтовые маслозаполненные компрессоры</t>
   </si>
   <si>
     <t>винтовые компрессоры remeza</t>
   </si>
   <si>
-    <t>поршневой компрессор безмасляный</t>
+    <t>спиральный безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
   </si>
   <si>
     <t>ремеза</t>
   </si>
   <si>
-    <t>компрессор медицинский</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>купить рефрижераторные осушители</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>вспомогательный компрессор электропоезда</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха для компрессора</t>
-  </si>
-  <si>
-    <t>купить поршневой компрессор</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры прямой привод</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор медицинского воздуха</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
   </si>
   <si>
     <t>воздушный компрессор</t>
   </si>
   <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
     <t>компрессор винтовой воздушный</t>
   </si>
   <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>ресиверы воздухосборники</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
+    <t>модульная компрессорная станция цена</t>
   </si>
   <si>
     <t>компрессоры</t>
   </si>
   <si>
+    <t>винтовой компрессор ремеза</t>
+  </si>
+  <si>
     <t>купить винтовой компрессор</t>
   </si>
   <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>медицинский компрессор сжатого воздуха</t>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
   </si>
   <si>
     <t>компрессоры ремеза</t>
   </si>
   <si>
-    <t>компрессор воздушный медицинский</t>
+    <t>винтовые компрессорные станции</t>
   </si>
   <si>
     <t>фильтры для очистки сжатого воздуха</t>
   </si>
   <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>стоимость винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>блочно модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>ресивер воздушный 500 литров</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
-  </si>
-  <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>осушитель воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>купить компрессор в беларуси</t>
-  </si>
-  <si>
-    <t>винтовые маслозаполненные компрессоры</t>
-  </si>
-  <si>
-    <t>спиральный безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель горячей регенерации</t>
-  </si>
-  <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор тандем</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель купить</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>доохладители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор медицинского воздуха</t>
-  </si>
-  <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>компрессор троллейбуса</t>
-  </si>
-  <si>
-    <t>ресивер промышленный</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор цена</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>винтовые компрессорные станции</t>
-  </si>
-  <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>компрессор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
     <t>ремеза медицинские компрессоры</t>
   </si>
   <si>
     <t>фильтр воздушный сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>компрессор поршневой fiac</t>
-  </si>
-  <si>
-    <t>производители поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель цена</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>ресивер воздушный</t>
-  </si>
-  <si>
-    <t>осушитель сжатого воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>передвижная дизельная станция</t>
-  </si>
-  <si>
-    <t>система управления компрессором</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>купить винтовой безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>генератор азота адсорбционного типа</t>
-  </si>
-  <si>
-    <t>воздушный ресивер цена</t>
   </si>
 </sst>
 </file>
@@ -864,16 +864,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -884,16 +884,16 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,16 +904,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -927,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
       <c r="F6">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -964,16 +964,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -984,16 +984,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1004,16 +1004,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1024,16 +1024,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1044,16 +1044,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1064,16 +1064,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1104,16 +1104,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1184,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1204,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1224,16 +1224,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1244,16 +1244,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1304,16 +1304,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1324,16 +1324,16 @@
         <v>28</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
         <v>10</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1344,16 +1344,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1364,16 +1364,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1404,16 +1404,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1444,16 +1444,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,16 +1464,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E33">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F33">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1524,16 +1524,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>1900</v>
+        <v>237</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1544,16 +1544,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,16 +1564,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1584,16 +1584,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>9</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,16 +1624,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1647,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1664,16 +1664,16 @@
         <v>45</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>10</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
       <c r="F42">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1684,16 +1684,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1704,16 +1704,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1747,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F46">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,16 +1764,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,16 +1784,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1804,16 +1804,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1844,16 +1844,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,16 +1864,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1884,16 +1884,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1904,7 +1904,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1924,16 +1924,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1944,16 +1944,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1964,16 +1964,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1984,16 +1984,16 @@
         <v>61</v>
       </c>
       <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>10</v>
       </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>8</v>
-      </c>
       <c r="F58">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,16 +2004,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2027,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,16 +2044,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2067,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2084,16 +2084,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,16 +2124,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2164,16 +2164,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2184,16 +2184,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2204,16 +2204,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2224,16 +2224,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2304,16 +2304,16 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>292</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2324,16 +2324,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2344,16 +2344,16 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2364,16 +2364,16 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2384,16 +2384,16 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,16 +2404,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,16 +2424,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2444,16 +2444,16 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2464,16 +2464,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2484,16 +2484,16 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2504,16 +2504,16 @@
         <v>87</v>
       </c>
       <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84">
         <v>10</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2524,16 +2524,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2544,16 +2544,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2564,16 +2564,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F87">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2584,16 +2584,16 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2604,16 +2604,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2624,16 +2624,16 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2644,16 +2644,16 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2664,13 +2664,13 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -2684,16 +2684,16 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2707,13 +2707,13 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2744,16 +2744,16 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2764,16 +2764,16 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2784,16 +2784,16 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2804,16 +2804,16 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2824,16 +2824,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2844,16 +2844,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2864,16 +2864,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2884,16 +2884,16 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2904,16 +2904,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2924,16 +2924,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2944,16 +2944,16 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2964,7 +2964,7 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2984,16 +2984,16 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3004,16 +3004,16 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3024,16 +3024,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3044,16 +3044,16 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F111">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3064,16 +3064,16 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3084,16 +3084,16 @@
         <v>116</v>
       </c>
       <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
         <v>10</v>
       </c>
-      <c r="D113">
-        <v>7</v>
-      </c>
-      <c r="E113">
-        <v>8</v>
-      </c>
       <c r="F113">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3107,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3124,16 +3124,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>1900</v>
+        <v>6</v>
       </c>
       <c r="D115">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3144,16 +3144,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>486</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3164,16 +3164,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3184,13 +3184,13 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -3204,16 +3204,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3227,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F120">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3244,7 +3244,7 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3264,16 +3264,16 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3287,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3304,16 +3304,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3324,16 +3324,16 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3344,10 +3344,10 @@
         <v>129</v>
       </c>
       <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="D126">
         <v>10</v>
-      </c>
-      <c r="D126">
-        <v>6</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -3364,16 +3364,16 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3384,16 +3384,16 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3404,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3424,16 +3424,16 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3444,16 +3444,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3464,7 +3464,7 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3484,16 +3484,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3504,16 +3504,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3524,16 +3524,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3544,16 +3544,16 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3564,16 +3564,16 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3584,16 +3584,16 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3604,16 +3604,16 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E139">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F139">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3624,16 +3624,16 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3644,16 +3644,16 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3664,16 +3664,16 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3684,16 +3684,16 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3704,16 +3704,16 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3724,16 +3724,16 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F145">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3744,16 +3744,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3764,16 +3764,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F147">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3824,16 +3824,16 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E150">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F150">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -31,6 +31,300 @@
     <t>2020-01-11</t>
   </si>
   <si>
+    <t>безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>передвижная дизельная станция</t>
+  </si>
+  <si>
+    <t>система управления компрессором</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>компрессоры</t>
+  </si>
+  <si>
+    <t>купить винтовой компрессор</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>фильтры для очистки сжатого воздуха</t>
+  </si>
+  <si>
+    <t>винтовые маслозаполненные компрессоры</t>
+  </si>
+  <si>
+    <t>адсорбционные осушители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>спиральный безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>поршневой компрессор безмасляный</t>
+  </si>
+  <si>
+    <t>ресивер воздушный 500 литров</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель цена</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>генератор азота адсорбционного типа</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор медицинский</t>
+  </si>
+  <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
+  </si>
+  <si>
+    <t>осушители воздуха адсорбционные</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>водомасляный сепаратор</t>
+  </si>
+  <si>
+    <t>компрессор купить в рб</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция цена</t>
+  </si>
+  <si>
+    <t>купить поршневой компрессор</t>
+  </si>
+  <si>
+    <t>винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>винтовой компрессор ремеза</t>
+  </si>
+  <si>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>купить рефрижераторные осушители</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>винтовые компрессорные станции</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
+  </si>
+  <si>
+    <t>компрессор медицинского воздуха</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
+  </si>
+  <si>
+    <t>ремеза медицинские компрессоры</t>
+  </si>
+  <si>
+    <t>фильтр воздушный сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
+  </si>
+  <si>
     <t>ресивер воздушный</t>
   </si>
   <si>
@@ -43,31 +337,28 @@
     <t>циклонный сепаратор</t>
   </si>
   <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
     <t>купить компрессор в беларуси</t>
   </si>
   <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры прямой привод</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
   </si>
   <si>
     <t>купить винтовой безмасляный компрессор</t>
@@ -79,43 +370,43 @@
     <t>адсорбционный осушитель горячей регенерации</t>
   </si>
   <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
+    <t>магистральный фильтр для сжатого воздуха</t>
   </si>
   <si>
     <t>адсорбционный осушитель купить</t>
   </si>
   <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
     <t>компрессор троллейбуса</t>
   </si>
   <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
     <t>ресивер промышленный</t>
   </si>
   <si>
-    <t>винтовой компрессор</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
     <t>компрессор медицинский купить</t>
   </si>
   <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
   </si>
   <si>
     <t>вспомогательный компрессор электропоезда</t>
@@ -127,28 +418,28 @@
     <t>доохладители сжатого воздуха</t>
   </si>
   <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
     <t>купить компрессор</t>
   </si>
   <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
+    <t>воздушные компрессоры</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>ремеза</t>
+  </si>
+  <si>
+    <t>стоимость винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>производство поршневых компрессоров</t>
   </si>
   <si>
     <t>ресиверы воздухосборники</t>
@@ -157,325 +448,34 @@
     <t>адсорбционный осушитель воздуха</t>
   </si>
   <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
     <t>циклонный сепаратор цена</t>
   </si>
   <si>
-    <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
+    <t>фильтр сжатого воздуха</t>
+  </si>
+  <si>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>воздушный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный</t>
+  </si>
+  <si>
+    <t>блочно модульная компрессорная станция</t>
   </si>
   <si>
     <t>компрессор поршневой fiac</t>
   </si>
   <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
     <t>производители поршневых компрессоров</t>
   </si>
   <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры прямой привод</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
     <t>медицинский компрессор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
-    <t>передвижная дизельная станция</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
-  </si>
-  <si>
-    <t>система управления компрессором</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
-  </si>
-  <si>
-    <t>ресивер воздушный 500 литров</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель цена</t>
-  </si>
-  <si>
-    <t>адсорбционные осушители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>поршневой компрессор безмасляный</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
-  </si>
-  <si>
-    <t>компрессор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>стоимость винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор медицинский</t>
-  </si>
-  <si>
-    <t>генератор азота адсорбционного типа</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>водомасляный сепаратор</t>
-  </si>
-  <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>компрессор купить в рб</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>блочно модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>купить рефрижераторные осушители</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>купить поршневой компрессор</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>воздушные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовые маслозаполненные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>спиральный безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
-  </si>
-  <si>
-    <t>ремеза</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор медицинского воздуха</t>
-  </si>
-  <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>воздушный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор тандем</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>компрессоры</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>купить винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>винтовые компрессорные станции</t>
-  </si>
-  <si>
-    <t>фильтры для очистки сжатого воздуха</t>
-  </si>
-  <si>
-    <t>ремеза медицинские компрессоры</t>
-  </si>
-  <si>
-    <t>фильтр воздушный сжатого воздуха</t>
   </si>
 </sst>
 </file>
@@ -864,16 +864,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -924,16 +924,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -964,13 +964,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>342</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1024,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1064,16 +1064,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1184,16 +1184,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1224,16 +1224,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1244,16 +1244,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1287,13 +1287,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1304,16 +1304,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1324,16 +1324,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1344,16 +1344,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1364,16 +1364,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1444,16 +1444,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F34">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1524,16 +1524,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1544,16 +1544,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,16 +1564,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1584,16 +1584,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F39">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,16 +1624,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1644,7 +1644,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1684,16 +1684,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1704,16 +1704,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,16 +1744,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,16 +1764,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1844,16 +1844,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,16 +1864,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1887,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
         <v>7</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-      <c r="F53">
-        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1907,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1944,16 +1944,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1990,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,16 +2004,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2024,16 +2024,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,16 +2044,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,16 +2064,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2084,16 +2084,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,16 +2124,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2167,13 +2167,13 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2184,16 +2184,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2230,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F73">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2304,16 +2304,16 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2324,16 +2324,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2344,16 +2344,16 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F77">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2384,16 +2384,16 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E78">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F78">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,16 +2404,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2427,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2467,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F82">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2504,16 +2504,16 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2524,16 +2524,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F85">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2564,16 +2564,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E87">
         <v>13</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2587,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2604,16 +2604,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F89">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2624,7 +2624,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2664,16 +2664,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2707,13 +2707,13 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E94">
+        <v>9</v>
+      </c>
+      <c r="F94">
         <v>11</v>
-      </c>
-      <c r="F94">
-        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2747,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2784,16 +2784,16 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2804,16 +2804,16 @@
         <v>102</v>
       </c>
       <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>4</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
       <c r="E99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2824,16 +2824,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F100">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2847,13 +2847,13 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E101">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2864,16 +2864,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2884,16 +2884,16 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2904,7 +2904,7 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2947,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E106">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F106">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2964,10 +2964,10 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2987,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F108">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3007,13 +3007,13 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3027,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3044,16 +3044,16 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F111">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3067,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3090,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F113">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3107,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3124,16 +3124,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3144,16 +3144,16 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3184,16 +3184,16 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3204,16 +3204,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3224,16 +3224,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3244,16 +3244,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3264,16 +3264,16 @@
         <v>125</v>
       </c>
       <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
         <v>1</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>17</v>
-      </c>
       <c r="F122">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3284,16 +3284,16 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>8</v>
+      </c>
+      <c r="F123">
         <v>10</v>
-      </c>
-      <c r="E123">
-        <v>7</v>
-      </c>
-      <c r="F123">
-        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3304,16 +3304,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3344,16 +3344,16 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3364,7 +3364,7 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E128">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F128">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3404,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E130">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F130">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3444,7 +3444,7 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3464,16 +3464,16 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3484,16 +3484,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3504,16 +3504,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D134">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F134">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3524,16 +3524,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3544,16 +3544,16 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F136">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3567,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3607,13 +3607,13 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F139">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3624,16 +3624,16 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F141">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3664,16 +3664,16 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3687,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3704,16 +3704,16 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3724,16 +3724,16 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3744,16 +3744,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F148">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E150">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F150">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/output-positions.xlsx
+++ b/output-positions.xlsx
@@ -31,25 +31,397 @@
     <t>2020-01-11</t>
   </si>
   <si>
+    <t>безмасляный поршневой компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой fiac</t>
+  </si>
+  <si>
+    <t>ресивер воздушный купить</t>
+  </si>
+  <si>
+    <t>производители поршневых компрессоров</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа купить</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор ремеза</t>
+  </si>
+  <si>
+    <t>компрессор винтовой</t>
+  </si>
+  <si>
+    <t>компрессор воздушный</t>
+  </si>
+  <si>
+    <t>компрессор поршневой масляный с ременным приводом</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой</t>
+  </si>
+  <si>
+    <t>дизельная компрессорная станция</t>
+  </si>
+  <si>
+    <t>воздушный компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>передвижная дизельная станция</t>
+  </si>
+  <si>
+    <t>ресивер воздух</t>
+  </si>
+  <si>
+    <t>система управления компрессором</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
+  </si>
+  <si>
+    <t>генератор азота цена</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха промышленный</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами купить</t>
+  </si>
+  <si>
+    <t>компрессор воздушный купить</t>
+  </si>
+  <si>
+    <t>винтовой компрессор</t>
+  </si>
+  <si>
+    <t>компрессор поршневой remeza</t>
+  </si>
+  <si>
+    <t>компрессоры специальные</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция купить</t>
+  </si>
+  <si>
+    <t>адсорбционные осушители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>ремеза медицинские компрессоры</t>
+  </si>
+  <si>
+    <t>поршневой компрессор безмасляный</t>
+  </si>
+  <si>
+    <t>фильтр воздушный сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор медицинский</t>
+  </si>
+  <si>
+    <t>ресивер воздушный</t>
+  </si>
+  <si>
+    <t>производители винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>осушитель сжатого воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>осушитель воздуха рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор</t>
+  </si>
+  <si>
+    <t>купить компрессор в беларуси</t>
+  </si>
+  <si>
+    <t>безмасляные компрессоры</t>
+  </si>
+  <si>
+    <t>компрессор поршневой прямой привод</t>
+  </si>
+  <si>
+    <t>безмасляный воздушный компрессор</t>
+  </si>
+  <si>
+    <t>компрессоры винтовые</t>
+  </si>
+  <si>
+    <t>винтовой компрессор цена</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры прямой привод</t>
+  </si>
+  <si>
+    <t>безмасляные винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>купить винтовой безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>осушители воздуха адсорбционные</t>
+  </si>
+  <si>
+    <t>воздушный ресивер цена</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель горячей регенерации</t>
+  </si>
+  <si>
+    <t>генератор азота купить</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель купить</t>
+  </si>
+  <si>
+    <t>системы управления компрессорами</t>
+  </si>
+  <si>
+    <t>компрессоры воздушные</t>
+  </si>
+  <si>
+    <t>компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
+    <t>компрессор среднего давления</t>
+  </si>
+  <si>
+    <t>модульный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор медицинский купить</t>
+  </si>
+  <si>
+    <t>поршневой компрессор remeza</t>
+  </si>
+  <si>
+    <t>магистральный фильтр для сжатого воздуха</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский</t>
+  </si>
+  <si>
+    <t>вспомогательный компрессор электропоезда</t>
+  </si>
+  <si>
+    <t>продажа винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха для компрессора</t>
+  </si>
+  <si>
+    <t>доохладители сжатого воздуха</t>
+  </si>
+  <si>
+    <t>купить компрессор</t>
+  </si>
+  <si>
+    <t>remeza</t>
+  </si>
+  <si>
+    <t>компрессор поршневой 10 бар</t>
+  </si>
+  <si>
+    <t>безмасляный компрессор купить</t>
+  </si>
+  <si>
+    <t>компрессор поршневой воздушный</t>
+  </si>
+  <si>
+    <t>стоимость винтовых компрессоров</t>
+  </si>
+  <si>
+    <t>купить компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>модульные компрессорные станции</t>
+  </si>
+  <si>
+    <t>ресиверы воздухосборники</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор цена</t>
+  </si>
+  <si>
+    <t>компрессор</t>
+  </si>
+  <si>
+    <t>генератор азота psa</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры</t>
+  </si>
+  <si>
+    <t>безмасляный винтовой компрессор</t>
+  </si>
+  <si>
+    <t>блочно модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>медицинский компрессор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>поршневой компрессор aircast</t>
+  </si>
+  <si>
+    <t>фильтр сжатого воздуха</t>
+  </si>
+  <si>
+    <t>осушитель воздуха адсорбционного типа</t>
+  </si>
+  <si>
+    <t>компрессор 380 вольт промышленный</t>
+  </si>
+  <si>
+    <t>продажа передвижных компрессоров</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель воздуха</t>
+  </si>
+  <si>
+    <t>доохладитель купить</t>
+  </si>
+  <si>
+    <t>компрессор ременной купить</t>
+  </si>
+  <si>
+    <t>компрессоры remeza</t>
+  </si>
+  <si>
+    <t>купить компрессор поршневой с ременным приводом</t>
+  </si>
+  <si>
     <t>безмасляный компрессор</t>
   </si>
   <si>
-    <t>передвижная дизельная станция</t>
-  </si>
-  <si>
-    <t>система управления компрессором</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
+    <t>компрессор винтовой воздушный цена</t>
+  </si>
+  <si>
+    <t>компрессор передвижной</t>
+  </si>
+  <si>
+    <t>винтовые маслозаполненные компрессоры</t>
+  </si>
+  <si>
+    <t>спиральный безмасляный компрессор</t>
+  </si>
+  <si>
+    <t>купить передвижной компрессор</t>
+  </si>
+  <si>
+    <t>ресивер воздушный 500 литров</t>
+  </si>
+  <si>
+    <t>рефрижераторные осушители воздуха</t>
+  </si>
+  <si>
+    <t>рефрижераторный осушитель цена</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор воздуха</t>
+  </si>
+  <si>
+    <t>ресивер для компрессора купить</t>
+  </si>
+  <si>
+    <t>компрессоры поршневые</t>
+  </si>
+  <si>
+    <t>генератор азота адсорбционного типа</t>
+  </si>
+  <si>
+    <t>воздушные компрессоры</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры remeza</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция</t>
+  </si>
+  <si>
+    <t>компрессор медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>передвижные дизельные компрессорные станции</t>
+  </si>
+  <si>
+    <t>воздухосборник ресивер воздушный</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель сжатого воздуха</t>
+  </si>
+  <si>
+    <t>поршневые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>осушитель рефрижераторного типа</t>
+  </si>
+  <si>
+    <t>водомасляный сепаратор</t>
+  </si>
+  <si>
+    <t>компрессор купить в рб</t>
+  </si>
+  <si>
+    <t>ремеза</t>
+  </si>
+  <si>
+    <t>компрессор тандем</t>
+  </si>
+  <si>
+    <t>модульная компрессорная станция цена</t>
+  </si>
+  <si>
+    <t>винтовые компрессоры ремеза</t>
+  </si>
+  <si>
+    <t>компрессор воздушный медицинский безмасляный</t>
+  </si>
+  <si>
+    <t>компрессор безмасляный малошумный</t>
+  </si>
+  <si>
+    <t>компрессор троллейбуса</t>
+  </si>
+  <si>
+    <t>ресивер воздушный для компрессора</t>
+  </si>
+  <si>
+    <t>ресивер промышленный</t>
+  </si>
+  <si>
+    <t>купить рефрижераторные осушители</t>
+  </si>
+  <si>
+    <t>циклонный сепаратор купить</t>
+  </si>
+  <si>
+    <t>купить поршневой компрессор</t>
+  </si>
+  <si>
+    <t>воздушный компрессор</t>
+  </si>
+  <si>
+    <t>компрессор винтовой воздушный</t>
+  </si>
+  <si>
+    <t>винтовой компрессор ремеза</t>
   </si>
   <si>
     <t>компрессоры</t>
@@ -58,424 +430,52 @@
     <t>купить винтовой компрессор</t>
   </si>
   <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
+    <t>винтовые компрессорные станции</t>
+  </si>
+  <si>
+    <t>компрессор стоматологический</t>
+  </si>
+  <si>
+    <t>передвижной поршневой компрессор</t>
+  </si>
+  <si>
+    <t>воздушный ресивер 500</t>
+  </si>
+  <si>
+    <t>осушитель адсорбционного типа</t>
+  </si>
+  <si>
+    <t>промышленный генератор азота</t>
+  </si>
+  <si>
+    <t>фильтр регулятор сжатого воздуха</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель цена</t>
+  </si>
+  <si>
+    <t>компрессор купить в минске</t>
   </si>
   <si>
     <t>компрессоры ремеза</t>
   </si>
   <si>
+    <t>ременный компрессор купить</t>
+  </si>
+  <si>
     <t>фильтры для очистки сжатого воздуха</t>
   </si>
   <si>
-    <t>винтовые маслозаполненные компрессоры</t>
-  </si>
-  <si>
-    <t>адсорбционные осушители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>спиральный безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>поршневой компрессор безмасляный</t>
-  </si>
-  <si>
-    <t>ресивер воздушный 500 литров</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель цена</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>генератор азота адсорбционного типа</t>
-  </si>
-  <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор медицинский</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>водомасляный сепаратор</t>
-  </si>
-  <si>
-    <t>компрессор купить в рб</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>компрессор тандем</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>купить поршневой компрессор</t>
-  </si>
-  <si>
-    <t>винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>купить рефрижераторные осушители</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовые компрессорные станции</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский</t>
-  </si>
-  <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
+    <t>модульные компрессорные станции производители</t>
+  </si>
+  <si>
+    <t>адсорбционный осушитель</t>
   </si>
   <si>
     <t>компрессор медицинского воздуха</t>
   </si>
   <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>ремеза медицинские компрессоры</t>
-  </si>
-  <si>
-    <t>фильтр воздушный сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>компрессор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
-  </si>
-  <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
-    <t>ресивер воздушный</t>
-  </si>
-  <si>
-    <t>осушитель сжатого воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>осушитель воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор</t>
-  </si>
-  <si>
-    <t>купить компрессор в беларуси</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры прямой привод</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>купить винтовой безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>воздушный ресивер цена</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель горячей регенерации</t>
-  </si>
-  <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель купить</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор троллейбуса</t>
-  </si>
-  <si>
-    <t>ресивер промышленный</t>
-  </si>
-  <si>
-    <t>компрессор медицинский купить</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
-  </si>
-  <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
-    <t>вспомогательный компрессор электропоезда</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха для компрессора</t>
-  </si>
-  <si>
-    <t>доохладители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>купить компрессор</t>
-  </si>
-  <si>
-    <t>воздушные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>ремеза</t>
-  </si>
-  <si>
-    <t>стоимость винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
     <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>ресиверы воздухосборники</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор цена</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
-    <t>воздушный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный</t>
-  </si>
-  <si>
-    <t>блочно модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор поршневой fiac</t>
-  </si>
-  <si>
-    <t>производители поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>медицинский компрессор сжатого воздуха</t>
   </si>
 </sst>
 </file>
@@ -864,13 +864,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>14</v>
@@ -924,16 +924,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -967,13 +967,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -984,16 +984,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1004,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>342</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1064,16 +1064,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1127,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1164,16 +1164,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1184,16 +1184,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1324,16 +1324,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1344,16 +1344,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1364,16 +1364,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1444,16 +1444,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,16 +1464,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1484,16 +1484,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1504,16 +1504,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1544,16 +1544,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,16 +1564,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1584,7 +1584,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F39">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1644,7 +1644,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1684,13 +1684,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,16 +1744,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,16 +1764,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1847,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,16 +1864,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1887,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1904,16 +1904,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1924,16 +1924,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1944,16 +1944,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1990,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,16 +2004,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>4</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2024,7 +2024,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,16 +2064,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2084,7 +2084,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,16 +2124,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F65">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2144,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2164,16 +2164,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2184,7 +2184,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2224,16 +2224,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2244,13 +2244,13 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F72">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2307,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>10</v>
       </c>
-      <c r="E74">
-        <v>7</v>
-      </c>
       <c r="F74">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2324,16 +2324,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2344,16 +2344,16 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77">
         <v>8</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2384,16 +2384,16 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,16 +2404,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,16 +2424,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F83">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2504,16 +2504,16 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2524,16 +2524,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2564,16 +2564,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F88">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2607,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
         <v>7</v>
-      </c>
-      <c r="F89">
-        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2624,13 +2624,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>292</v>
+        <v>4</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2664,16 +2664,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2704,16 +2704,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D94">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2744,16 +2744,16 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F97">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2824,16 +2824,16 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E100">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F100">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2847,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101">
         <v>9</v>
@@ -2867,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2884,16 +2884,16 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2904,16 +2904,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2924,16 +2924,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F105">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2947,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F106">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2964,16 +2964,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2987,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3004,16 +3004,16 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3027,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3044,10 +3044,10 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -3067,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F112">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3084,16 +3084,16 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F113">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3104,16 +3104,16 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F114">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3124,16 +3124,16 @@
         <v>118</v>
       </c>
       <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
         <v>11</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
       <c r="E115">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3147,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3164,16 +3164,16 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3184,16 +3184,16 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F118">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3204,16 +3204,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3224,16 +3224,16 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F120">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3244,16 +3244,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3267,13 +3267,13 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3284,16 +3284,16 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3307,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3330,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3344,16 +3344,16 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3367,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F127">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3404,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3424,16 +3424,16 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D130">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3444,7 +3444,7 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3464,16 +3464,16 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3484,16 +3484,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3504,16 +3504,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3524,16 +3524,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3570,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E138">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F138">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3624,16 +3624,16 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3644,16 +3644,16 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3664,16 +3664,16 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F142">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3684,7 +3684,7 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3704,16 +3704,16 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F144">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3724,7 +3724,7 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3744,16 +3744,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F146">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3784,16 +3784,16 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E150">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
